--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,93 +541,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2138</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,125 +701,125 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>2241</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,71 +883,71 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,115 +1021,115 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,135 +1139,135 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>2984</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,115 +1405,115 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>691</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-18 07:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1236041536.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
+          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-15 07:53</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1235512035.html</t>
+          <t>/news,601677,1235576160.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
+          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-14 18:28</t>
+          <t>10-15 10:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1235413459.html</t>
+          <t>/news,601677,1235521524.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
+          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-15 07:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1235082510.html</t>
+          <t>/news,601677,1235512035.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>976</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
+          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 18:28</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1234645757.html</t>
+          <t>/news,601677,1235413459.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾14个月新低</t>
+          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 15:38</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1234503839.html</t>
+          <t>/news,601677,1235082510.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
+          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-12 07:51</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1234213007.html</t>
+          <t>/news,601677,1234645757.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业股价连续2日创逾14个月新低</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-11 15:39</t>
+          <t>10-12 15:38</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1234081470.html</t>
+          <t>/news,601677,1234503839.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
+          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-11 07:49</t>
+          <t>10-12 07:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1233836533.html</t>
+          <t>/news,601677,1234213007.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-10 20:38</t>
+          <t>10-11 15:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1233768153.html</t>
+          <t>/news,601677,1234081470.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
+          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-10 19:13</t>
+          <t>10-11 07:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1233758135.html</t>
+          <t>/news,601677,1233836533.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
+          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-10 17:13</t>
+          <t>10-10 20:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1233711549.html</t>
+          <t>/news,601677,1233768153.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
+          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-10 19:13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1233698202.html</t>
+          <t>/news,601677,1233758135.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出明泰铝业 累计净卖出6856.55万元</t>
+          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-10 17:13</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1233316736.html</t>
+          <t>/news,601677,1233711549.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：“专精”走向“特新” 明泰铝业成长蜕变</t>
+          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-07 19:41</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1233227170.html</t>
+          <t>/news,601677,1233698202.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业09月29日被沪股通减持16.97万股</t>
+          <t>沪股通连续2周净卖出明泰铝业 累计净卖出6856.55万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-30 07:48</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1232535778.html</t>
+          <t>/news,601677,1233316736.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业09月28日获沪股通增持91.07万股</t>
+          <t>明泰铝业：“专精”走向“特新” 明泰铝业成长蜕变</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-29 08:01</t>
+          <t>10-07 19:41</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1232089265.html</t>
+          <t>/news,601677,1233227170.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业09月29日被沪股通减持16.97万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-28 15:43</t>
+          <t>09-30 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1231939186.html</t>
+          <t>/news,601677,1232535778.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业09月27日被沪股通减持47.58万股</t>
+          <t>明泰铝业09月28日获沪股通增持91.07万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-28 07:41</t>
+          <t>09-29 08:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1231635930.html</t>
+          <t>/news,601677,1232089265.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,61 +2675,61 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业09月26日被沪股通减持44.32万股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-27 07:52</t>
+          <t>09-28 15:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1231247858.html</t>
+          <t>/news,601677,1231939186.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾13个月新低</t>
+          <t>明泰铝业09月27日被沪股通减持47.58万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-26 15:41</t>
+          <t>09-28 07:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1231101267.html</t>
+          <t>/news,601677,1231635930.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,103 +2739,103 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少5913.66万元，居有色金属板块第七</t>
+          <t>明泰铝业09月26日被沪股通减持44.32万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-27 07:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1230722807.html</t>
+          <t>/news,601677,1231247858.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业09月23日被沪股通减持82.88万股</t>
+          <t>明泰铝业股价创逾13个月新低</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-24 07:50</t>
+          <t>09-26 15:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1230640886.html</t>
+          <t>/news,601677,1231101267.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业09月22日被沪股通减持69.17万股</t>
+          <t>明泰铝业本周沪股通持股市值减少5913.66万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-23 07:45</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1230233378.html</t>
+          <t>/news,601677,1230722807.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业09月21日被沪股通减持107.61万股</t>
+          <t>明泰铝业09月23日被沪股通减持82.88万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-22 07:43</t>
+          <t>09-24 07:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1229809369.html</t>
+          <t>/news,601677,1230640886.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业09月20日被沪股通减持50.32万股</t>
+          <t>明泰铝业09月22日被沪股通减持69.17万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-21 07:49</t>
+          <t>09-23 07:45</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1229382448.html</t>
+          <t>/news,601677,1230233378.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加3659.23万元，居有色金属板块第四</t>
+          <t>明泰铝业09月21日被沪股通减持107.61万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 07:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1228440748.html</t>
+          <t>/news,601677,1229809369.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业09月16日获沪股通增持68.79万股</t>
+          <t>明泰铝业09月20日被沪股通减持50.32万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-17 08:33</t>
+          <t>09-21 07:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1228360031.html</t>
+          <t>/news,601677,1229382448.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业09月15日被沪股通减持81.9万股</t>
+          <t>明泰铝业本周沪股通持股市值增加3659.23万元，居有色金属板块第四</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-16 07:54</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1227924138.html</t>
+          <t>/news,601677,1228440748.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业09月14日获沪股通增持110.52万股</t>
+          <t>明泰铝业09月16日获沪股通增持68.79万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-15 08:10</t>
+          <t>09-17 08:33</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1227430751.html</t>
+          <t>/news,601677,1228360031.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,125 +733,125 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2241</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,71 +883,71 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,71 +1107,71 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2984</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,93 +1469,93 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,125 +1907,125 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
+          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-15 07:53</t>
+          <t>10-18 07:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1235512035.html</t>
+          <t>/news,601677,1236041536.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
+          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-14 18:28</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1235413459.html</t>
+          <t>/news,601677,1235576160.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
+          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-15 10:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1235082510.html</t>
+          <t>/news,601677,1235521524.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
+          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-15 07:53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1234645757.html</t>
+          <t>/news,601677,1235512035.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾14个月新低</t>
+          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-12 15:38</t>
+          <t>10-14 18:28</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1234503839.html</t>
+          <t>/news,601677,1235413459.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
+          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-12 07:51</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1234213007.html</t>
+          <t>/news,601677,1235082510.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-11 15:39</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1234081470.html</t>
+          <t>/news,601677,1234645757.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
+          <t>明泰铝业股价连续2日创逾14个月新低</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-11 07:49</t>
+          <t>10-12 15:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1233836533.html</t>
+          <t>/news,601677,1234503839.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
+          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-10 20:38</t>
+          <t>10-12 07:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1233768153.html</t>
+          <t>/news,601677,1234213007.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-10 19:13</t>
+          <t>10-11 15:39</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1233758135.html</t>
+          <t>/news,601677,1234081470.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
+          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-10 17:13</t>
+          <t>10-11 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1233711549.html</t>
+          <t>/news,601677,1233836533.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
+          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-10 20:38</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1233698202.html</t>
+          <t>/news,601677,1233768153.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出明泰铝业 累计净卖出6856.55万元</t>
+          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-10 19:13</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1233316736.html</t>
+          <t>/news,601677,1233758135.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：“专精”走向“特新” 明泰铝业成长蜕变</t>
+          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-07 19:41</t>
+          <t>10-10 17:13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1233227170.html</t>
+          <t>/news,601677,1233711549.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业09月29日被沪股通减持16.97万股</t>
+          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,93 +2621,93 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-30 07:48</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1232535778.html</t>
+          <t>/news,601677,1233698202.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业09月28日获沪股通增持91.07万股</t>
+          <t>沪股通连续2周净卖出明泰铝业 累计净卖出6856.55万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-29 08:01</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1232089265.html</t>
+          <t>/news,601677,1233316736.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业：“专精”走向“特新” 明泰铝业成长蜕变</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-28 15:43</t>
+          <t>10-07 19:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1231939186.html</t>
+          <t>/news,601677,1233227170.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业09月27日被沪股通减持47.58万股</t>
+          <t>明泰铝业09月29日被沪股通减持16.97万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-28 07:41</t>
+          <t>09-30 07:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1231635930.html</t>
+          <t>/news,601677,1232535778.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业09月26日被沪股通减持44.32万股</t>
+          <t>明泰铝业09月28日获沪股通增持91.07万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-27 07:52</t>
+          <t>09-29 08:01</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1231247858.html</t>
+          <t>/news,601677,1232089265.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾13个月新低</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-26 15:41</t>
+          <t>09-28 15:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1231101267.html</t>
+          <t>/news,601677,1231939186.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少5913.66万元，居有色金属板块第七</t>
+          <t>明泰铝业09月27日被沪股通减持47.58万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-28 07:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1230722807.html</t>
+          <t>/news,601677,1231635930.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业09月23日被沪股通减持82.88万股</t>
+          <t>明泰铝业09月26日被沪股通减持44.32万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-24 07:50</t>
+          <t>09-27 07:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1230640886.html</t>
+          <t>/news,601677,1231247858.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业09月22日被沪股通减持69.17万股</t>
+          <t>明泰铝业股价创逾13个月新低</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-23 07:45</t>
+          <t>09-26 15:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1230233378.html</t>
+          <t>/news,601677,1231101267.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业09月21日被沪股通减持107.61万股</t>
+          <t>明泰铝业本周沪股通持股市值减少5913.66万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-22 07:43</t>
+          <t>09-25 14:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1229809369.html</t>
+          <t>/news,601677,1230722807.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业09月20日被沪股通减持50.32万股</t>
+          <t>明泰铝业09月23日被沪股通减持82.88万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-21 07:49</t>
+          <t>09-24 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1229382448.html</t>
+          <t>/news,601677,1230640886.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加3659.23万元，居有色金属板块第四</t>
+          <t>明泰铝业09月22日被沪股通减持69.17万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-23 07:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1228440748.html</t>
+          <t>/news,601677,1230233378.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业09月16日获沪股通增持68.79万股</t>
+          <t>明泰铝业09月21日被沪股通减持107.61万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-17 08:33</t>
+          <t>09-22 07:43</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1228360031.html</t>
+          <t>/news,601677,1229809369.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1408</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>872</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2271</t>
+          <t>807</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,83 +861,83 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>2450</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,93 +1181,93 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,157 +1277,157 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,93 +1437,93 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,125 +2141,125 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-15 07:53</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1235512035.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-14 18:28</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1235413459.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
+          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-18 07:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1235082510.html</t>
+          <t>/news,601677,1236041536.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
+          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1234645757.html</t>
+          <t>/news,601677,1235576160.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾14个月新低</t>
+          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-12 15:38</t>
+          <t>10-15 10:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1234503839.html</t>
+          <t>/news,601677,1235521524.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
+          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-12 07:51</t>
+          <t>10-15 07:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1234213007.html</t>
+          <t>/news,601677,1235512035.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-11 15:39</t>
+          <t>10-14 18:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1234081470.html</t>
+          <t>/news,601677,1235413459.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
+          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-11 07:49</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1233836533.html</t>
+          <t>/news,601677,1235082510.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
+          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-10 20:38</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1233768153.html</t>
+          <t>/news,601677,1234645757.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
+          <t>明泰铝业股价连续2日创逾14个月新低</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-10 19:13</t>
+          <t>10-12 15:38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1233758135.html</t>
+          <t>/news,601677,1234503839.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
+          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,93 +2589,93 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-10 17:13</t>
+          <t>10-12 07:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1233711549.html</t>
+          <t>/news,601677,1234213007.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-11 15:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1233698202.html</t>
+          <t>/news,601677,1234081470.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出明泰铝业 累计净卖出6856.55万元</t>
+          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-11 07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1233316736.html</t>
+          <t>/news,601677,1233836533.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：“专精”走向“特新” 明泰铝业成长蜕变</t>
+          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-07 19:41</t>
+          <t>10-10 20:38</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1233227170.html</t>
+          <t>/news,601677,1233768153.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业09月29日被沪股通减持16.97万股</t>
+          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-30 07:48</t>
+          <t>10-10 19:13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1232535778.html</t>
+          <t>/news,601677,1233758135.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业09月28日获沪股通增持91.07万股</t>
+          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-29 08:01</t>
+          <t>10-10 17:13</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1232089265.html</t>
+          <t>/news,601677,1233711549.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-28 15:43</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1231939186.html</t>
+          <t>/news,601677,1233698202.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业09月27日被沪股通减持47.58万股</t>
+          <t>沪股通连续2周净卖出明泰铝业 累计净卖出6856.55万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-28 07:41</t>
+          <t>10-09 14:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1231635930.html</t>
+          <t>/news,601677,1233316736.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业09月26日被沪股通减持44.32万股</t>
+          <t>明泰铝业：“专精”走向“特新” 明泰铝业成长蜕变</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,115 +2845,115 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-27 07:52</t>
+          <t>10-07 19:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1231247858.html</t>
+          <t>/news,601677,1233227170.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾13个月新低</t>
+          <t>明泰铝业09月29日被沪股通减持16.97万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-26 15:41</t>
+          <t>09-30 07:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1231101267.html</t>
+          <t>/news,601677,1232535778.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少5913.66万元，居有色金属板块第七</t>
+          <t>明泰铝业09月28日获沪股通增持91.07万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-25 14:05</t>
+          <t>09-29 08:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1230722807.html</t>
+          <t>/news,601677,1232089265.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业09月23日被沪股通减持82.88万股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-24 07:50</t>
+          <t>09-28 15:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1230640886.html</t>
+          <t>/news,601677,1231939186.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业09月22日被沪股通减持69.17万股</t>
+          <t>明泰铝业09月27日被沪股通减持47.58万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-23 07:45</t>
+          <t>09-28 07:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1230233378.html</t>
+          <t>/news,601677,1231635930.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业09月21日被沪股通减持107.61万股</t>
+          <t>明泰铝业09月26日被沪股通减持44.32万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-22 07:43</t>
+          <t>09-27 07:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1229809369.html</t>
+          <t>/news,601677,1231247858.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,81 +457,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1408</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,83 +669,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,61 +797,61 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>1453</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,93 +1021,93 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>810</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,61 +1117,61 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,125 +1213,125 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,93 +1437,93 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,157 +1661,157 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>3144</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,125 +2301,125 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-15 07:53</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1235512035.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 18:28</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1235413459.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1235082510.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,125 +2525,125 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1234645757.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾14个月新低</t>
+          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-12 15:38</t>
+          <t>10-18 07:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1234503839.html</t>
+          <t>/news,601677,1236041536.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
+          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-12 07:51</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1234213007.html</t>
+          <t>/news,601677,1235576160.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 15:39</t>
+          <t>10-15 10:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1234081470.html</t>
+          <t>/news,601677,1235521524.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
+          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-11 07:49</t>
+          <t>10-15 07:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1233836533.html</t>
+          <t>/news,601677,1235512035.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
+          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 20:38</t>
+          <t>10-14 18:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1233768153.html</t>
+          <t>/news,601677,1235413459.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
+          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-10 19:13</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1233758135.html</t>
+          <t>/news,601677,1235082510.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
+          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,125 +2749,125 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-10 17:13</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1233711549.html</t>
+          <t>/news,601677,1234645757.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
+          <t>明泰铝业股价连续2日创逾14个月新低</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-12 15:38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1233698202.html</t>
+          <t>/news,601677,1234503839.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出明泰铝业 累计净卖出6856.55万元</t>
+          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 14:05</t>
+          <t>10-12 07:51</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1233316736.html</t>
+          <t>/news,601677,1234213007.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业：“专精”走向“特新” 明泰铝业成长蜕变</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-07 19:41</t>
+          <t>10-11 15:39</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1233227170.html</t>
+          <t>/news,601677,1234081470.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业09月29日被沪股通减持16.97万股</t>
+          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-30 07:48</t>
+          <t>10-11 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1232535778.html</t>
+          <t>/news,601677,1233836533.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业09月28日获沪股通增持91.07万股</t>
+          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-29 08:01</t>
+          <t>10-10 20:38</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1232089265.html</t>
+          <t>/news,601677,1233768153.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-28 15:43</t>
+          <t>10-10 19:13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1231939186.html</t>
+          <t>/news,601677,1233758135.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业09月27日被沪股通减持47.58万股</t>
+          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-28 07:41</t>
+          <t>10-10 17:13</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1231635930.html</t>
+          <t>/news,601677,1233711549.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业09月26日被沪股通减持44.32万股</t>
+          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-27 07:52</t>
+          <t>10-10 16:26</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1231247858.html</t>
+          <t>/news,601677,1233698202.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1389</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>949</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1225,7 +1225,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1417,7 +1417,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1513,7 +1513,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2889,7 +2889,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,39 +467,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4090</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,93 +669,93 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,93 +765,93 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>810</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,125 +1213,125 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,71 +1363,71 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,71 +1587,71 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>3361</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,125 +2387,125 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,93 +2525,93 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
+          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-15 07:53</t>
+          <t>10-18 07:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1235512035.html</t>
+          <t>/news,601677,1236041536.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
+          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 18:28</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1235413459.html</t>
+          <t>/news,601677,1235576160.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
+          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-15 10:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1235082510.html</t>
+          <t>/news,601677,1235521524.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
+          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-15 07:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1234645757.html</t>
+          <t>/news,601677,1235512035.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾14个月新低</t>
+          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 15:38</t>
+          <t>10-14 18:28</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1234503839.html</t>
+          <t>/news,601677,1235413459.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
+          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,93 +2813,93 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 07:51</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1234213007.html</t>
+          <t>/news,601677,1235082510.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 15:39</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1234081470.html</t>
+          <t>/news,601677,1234645757.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
+          <t>明泰铝业股价连续2日创逾14个月新低</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 07:49</t>
+          <t>10-12 15:38</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1233836533.html</t>
+          <t>/news,601677,1234503839.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
+          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 20:38</t>
+          <t>10-12 07:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1233768153.html</t>
+          <t>/news,601677,1234213007.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【调研快报】明泰铝业接待长江证券等多家机构调研</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 19:13</t>
+          <t>10-11 15:39</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1233758135.html</t>
+          <t>/news,601677,1234081470.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业：9月铝板带箔销量9.87万吨，同比增加4%</t>
+          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 17:13</t>
+          <t>10-11 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1233711549.html</t>
+          <t>/news,601677,1233836533.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：“明泰转债”第三季度转股4302股 累计转股约1.03亿股</t>
+          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 16:26</t>
+          <t>10-10 20:38</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1233698202.html</t>
+          <t>/news,601677,1233768153.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,49 +457,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4140</t>
+          <t>1748</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,93 +765,93 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,93 +861,93 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,61 +1117,61 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>942</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>817</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,125 +1309,125 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>2051</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>2559</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,71 +1459,71 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,71 +1683,71 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3151</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>727</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,93 +2141,93 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,125 +2483,125 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,93 +2621,93 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
+          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-15 07:53</t>
+          <t>10-18 07:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1235512035.html</t>
+          <t>/news,601677,1236041536.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
+          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-14 18:28</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1235413459.html</t>
+          <t>/news,601677,1235576160.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
+          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-15 10:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1235082510.html</t>
+          <t>/news,601677,1235521524.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
+          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-15 07:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1234645757.html</t>
+          <t>/news,601677,1235512035.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾14个月新低</t>
+          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 15:38</t>
+          <t>10-14 18:28</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1234503839.html</t>
+          <t>/news,601677,1235413459.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
+          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-12 07:51</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1234213007.html</t>
+          <t>/news,601677,1235082510.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-11 15:39</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1234081470.html</t>
+          <t>/news,601677,1234645757.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业10月10日被沪股通减持93.3万股</t>
+          <t>明泰铝业股价连续2日创逾14个月新低</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 07:49</t>
+          <t>10-12 15:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1233836533.html</t>
+          <t>/news,601677,1234503839.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：公司一直处于满产状态 合同储备量可满足未来1个半月生产</t>
+          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 20:38</t>
+          <t>10-12 07:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1233768153.html</t>
+          <t>/news,601677,1234213007.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,24 +797,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,157 +861,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>1488</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>960</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,61 +1373,61 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2559</t>
+          <t>2063</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,125 +1437,125 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>2579</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,71 +1619,71 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,115 +1757,115 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,135 +1875,135 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,115 +2141,115 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-18 07:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1236041536.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
+          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-15 07:53</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1235512035.html</t>
+          <t>/news,601677,1235576160.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
+          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 18:28</t>
+          <t>10-15 10:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1235413459.html</t>
+          <t>/news,601677,1235521524.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
+          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-15 07:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1235082510.html</t>
+          <t>/news,601677,1235512035.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
+          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 18:28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1234645757.html</t>
+          <t>/news,601677,1235413459.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾14个月新低</t>
+          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 15:38</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1234503839.html</t>
+          <t>/news,601677,1235082510.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业10月11日被沪股通减持111.11万股</t>
+          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 07:51</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1234213007.html</t>
+          <t>/news,601677,1234645757.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,61 +733,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4474</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,93 +925,93 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1488</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,93 +1373,93 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>980</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,93 +1501,93 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,189 +1597,189 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,93 +1821,93 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,125 +1917,125 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,71 +2067,71 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,93 +2205,93 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>731</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>962</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业10月14日被沪股通减持7.32万股</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-15 07:53</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1235512035.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业拟定增募资20亿元 已获证监会受理</t>
+          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 18:28</t>
+          <t>10-18 07:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1235413459.html</t>
+          <t>/news,601677,1236041536.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业10月13日被沪股通减持158.29万股</t>
+          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1235082510.html</t>
+          <t>/news,601677,1235576160.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业10月12日被沪股通减持11.38万股</t>
+          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-15 10:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1234645757.html</t>
+          <t>/news,601677,1235521524.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,71 +457,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>1460</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,61 +733,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>2874</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>992</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,125 +1597,125 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>2075</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>2632</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,71 +1747,71 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3408</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,71 +1971,71 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3176</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,125 +2771,125 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237348991.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业10月17日获沪股通增持11.02万股</t>
+          <t>明泰铝业股价创逾14个月新低</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 07:45</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1236041536.html</t>
+          <t>/news,601677,1237206394.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少7101.93万元，居有色金属板块第一</t>
+          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-20 07:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1235576160.html</t>
+          <t>/news,601677,1236887790.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业非公开发行股票申请获证监会受理 将进一步增强在铝加工领域竞争优势</t>
+          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-15 10:32</t>
+          <t>10-19 07:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1235521524.html</t>
+          <t>/news,601677,1236440820.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,71 +563,71 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>712</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>4547</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,93 +1597,93 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>825</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,93 +1725,93 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>2093</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,189 +1821,189 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3413</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,125 +2141,125 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>3425</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3183</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,71 +2291,71 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>792</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业10月20日获沪股通增持258.35万股</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1237348991.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾14个月新低</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1237206394.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业10月19日获沪股通增持32.4万股</t>
+          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 07:43</t>
+          <t>10-22 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1236887790.html</t>
+          <t>/news,601677,1237796724.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业10月18日被沪股通减持2.42万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 07:55</t>
+          <t>10-21 15:38</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1236440820.html</t>
+          <t>/news,601677,1237687070.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2967</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,24 +1213,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,157 +1277,157 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>4556</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,93 +1693,93 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>825</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,125 +1853,125 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>2687</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,71 +2035,71 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3425</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,115 +2173,115 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,135 +2291,135 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,115 +2557,115 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业：多项产品获得碳足迹认证</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-25 17:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238831914.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238447515.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业10月21日获沪股通增持40.69万股</t>
+          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-22 07:48</t>
+          <t>10-25 07:31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1237796724.html</t>
+          <t>/news,601677,1238444153.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-21 15:38</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1237687070.html</t>
+          <t>/news,601677,1237859543.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,81 +457,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,71 +755,71 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>3062</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,93 +1341,93 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,93 +1469,93 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,93 +1789,93 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,189 +2013,189 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2704</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,125 +2333,125 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,71 +2483,71 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>803</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,93 +2621,93 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业：多项产品获得碳足迹认证</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 17:43</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1238831914.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业10月24日获沪股通增持103.77万股</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1238447515.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入234.62万元，融资余额234.62万元（10-24）</t>
+          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 07:31</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1238444153.html</t>
+          <t>/news,601677,1238967814.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加6155.64万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1237859543.html</t>
+          <t>/news,601677,1238965672.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3062</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1577,7 +1577,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1801,7 +1801,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>832</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1961,7 +1961,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2249,7 +2249,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>1236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2441,7 +2441,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1682</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>804</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,103 +457,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3063</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,61 +1213,61 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,24 +1405,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,157 +1469,157 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,93 +1885,93 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2112</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,125 +2045,125 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,71 +2227,71 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,115 +2365,115 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1682</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,135 +2483,135 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3217</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,115 +2749,115 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业10月25日获沪股通增持156.52万股</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1238967814.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入564.55万元，融资余额799.16万元（10-25）</t>
+          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1238965672.html</t>
+          <t>/news,601677,1239494607.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,125 +509,125 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3079</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4575</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,93 +1555,93 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>1389</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,93 +1885,93 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,93 +1981,93 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2119</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2082,24 +2082,24 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,189 +2109,189 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,147 +2429,147 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,71 +2579,71 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2786,24 +2786,24 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,125 +2813,125 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 07:34</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240045387.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入352.05万元，融资余额1151.21万元（10-26）</t>
+          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 07:32</t>
+          <t>10-27 07:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1239494607.html</t>
+          <t>/news,601677,1239496480.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,115 +541,115 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,61 +1245,61 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,24 +1501,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,157 +1565,157 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,93 +1981,93 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,125 +2141,125 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,71 +2323,71 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,115 +2461,115 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,135 +2579,135 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,115 +2845,115 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入602.19万元，融资余额1753.4万元（10-27）</t>
+          <t>明泰铝业股价创逾15个月新低</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 07:34</t>
+          <t>10-28 15:40</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1240045387.html</t>
+          <t>/news,601677,1240442388.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业10月26日获沪股通增持87.1万股</t>
+          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 07:45</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1239496480.html</t>
+          <t>/news,601677,1240047230.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,115 +605,115 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,61 +1373,61 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,24 +1565,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4580</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,157 +1629,157 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,125 +2205,125 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-01 14:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1241610751.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-01 08:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1241301974.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,71 +2387,71 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-01 08:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1241300528.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1241296360.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-01 07:38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1241294639.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>10-31 21:12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1241233835.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>1247</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,115 +2525,115 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>10-31 17:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1241173061.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>10-31 17:18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1241166568.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>10-31 17:14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1241165314.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业一字跌停 两机构买入895万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>10-31 17:10</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1241164106.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,135 +2643,135 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业股价连续2日创逾15个月新低</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>10-31 15:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1241138666.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1696</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 14:57</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241119510.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3234</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>10-30 15:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1240713449.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1240706794.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>10-29 19:11</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1240642067.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>10-29 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1240599828.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-29 07:29</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1240596912.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>10-28 20:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1240518692.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,108 +2909,108 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1240460332.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>10-28 16:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1240460498.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾15个月新低</t>
+          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 15:40</t>
+          <t>10-28 16:34</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1240442388.html</t>
+          <t>/news,601677,1240460814.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业10月27日获沪股通增持187.91万股</t>
+          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 16:14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1240047230.html</t>
+          <t>/news,601677,1240453353.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,61 +467,61 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,93 +669,93 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,93 +1075,93 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,61 +1395,61 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,83 +1693,83 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,71 +1811,71 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,71 +2067,71 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,93 +2269,93 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华泰证券维持明泰铝业买入评级 目标价23.38元</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 14:57</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1241610751.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 下游需求放缓 盈利短期承压</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 08:29</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1241301974.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,135 +2387,135 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少19.92%</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 08:21</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1241300528.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业10月31日获沪股通增持20.19万股</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1241296360.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入392.12万元，融资余额2907.77万元（10-31）</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 07:38</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1241294639.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>兴业证券维持明泰铝业审慎增持评级 预计2022年净利润同比减少12.04%</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 21:12</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1241233835.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业跌停 机构净买入894.87万元 沪股通净买入290.33万元</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 17:36</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1241173061.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>1777</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业跌停（10-31）</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 17:18</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1241166568.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(10-31)</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 17:14</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1241165314.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,71 +2611,71 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业一字跌停 两机构买入895万元</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 17:10</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1241164106.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业股价连续2日创逾15个月新低</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 15:41</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1241138666.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度营收220亿元增长29% 净利润13.2亿元</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 14:57</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1241119510.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,103 +2707,103 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2515.65万元，居有色金属板块第三</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 15:09</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1240713449.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加1.25亿元，居有色金属板块第二</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1240706794.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3239</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业前三季度净利润增近三成 再生铝处理规模和工艺领先</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 19:11</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1240642067.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业10月28日获沪股通增持198.8万股</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 07:49</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1240599828.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入762.25万元，融资余额2515.65万元（10-28）</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 07:29</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1240596912.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【图解季报】明泰铝业：2022年前三季度归母净利润为13.2亿元，同比下降5.9%</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 20:00</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1240518692.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业股东户数增加21.42%，户均持股51.45万元</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1240460332.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：第三季度净利2.29亿元 同比下降58.96%</t>
+          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 16:35</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1240460498.html</t>
+          <t>/news,601677,1241650194.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>营收增长净利却下滑！明泰铝业前三季度盈利13.2亿元</t>
+          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 16:34</t>
+          <t>11-01 16:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1240460814.html</t>
+          <t>/news,601677,1241649264.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：2022年前三季度净利润同比下降5.87%</t>
+          <t>明泰铝业股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 16:14</t>
+          <t>11-01 15:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1240453353.html</t>
+          <t>/news,601677,1241629473.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>799</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>2215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,71 +1043,71 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,93 +1373,93 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,93 +1469,93 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,83 +1789,83 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,61 +1907,61 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3437</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2083</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4602</t>
+          <t>2093</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,93 +2397,93 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>4607</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,93 +2493,93 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>龙虎榜丨明泰铝业今日跌6.88% 机构合计净卖出2.87亿元</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1241650194.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(11-01)</t>
+          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 16:54</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1241649264.html</t>
+          <t>/news,601677,1241656079.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业股价创逾16个月新低</t>
+          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 15:36</t>
+          <t>11-01 16:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1241629473.html</t>
+          <t>/news,601677,1241650199.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
+          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 07:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1255447391.html</t>
+          <t>/news,601677,1256090524.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
+          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:30</t>
+          <t>12-07 07:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1255444601.html</t>
+          <t>/news,601677,1256087940.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,83 +541,83 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 17:13</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1255235963.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2215</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>2505</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,157 +1117,157 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,115 +1469,115 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,24 +2429,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4607</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,157 +2493,157 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>4607</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241952201.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业盘中一度跌停 机构资金净卖出3亿元</t>
+          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 07:56</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1241656079.html</t>
+          <t>/news,601677,1241802216.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>近3日累跌超20% 明泰铝业：目前生产经营环境未发生重大变化</t>
+          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 16:56</t>
+          <t>11-02 07:34</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1241650199.html</t>
+          <t>/news,601677,1241798889.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
+          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 07:46</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1256090524.html</t>
+          <t>/news,601677,1256757576.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
+          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:31</t>
+          <t>12-08 07:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1256087940.html</t>
+          <t>/news,601677,1256751782.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
+          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 17:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1255447391.html</t>
+          <t>/news,601677,1256536705.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
+          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:30</t>
+          <t>12-07 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1255444601.html</t>
+          <t>/news,601677,1256090524.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
+          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 17:13</t>
+          <t>12-07 07:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1255235963.html</t>
+          <t>/news,601677,1256087940.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,71 +627,71 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>2239</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,71 +1203,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,93 +1533,93 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,93 +1629,93 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,83 +1949,83 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3459</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4607</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,93 +2557,93 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,93 +2653,93 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东方证券维持明泰铝业买入评级 目标价21.45元</t>
+          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 11:00</t>
+          <t>11-03 07:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1241952201.html</t>
+          <t>/news,601677,1242323972.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业11月01日被沪股通减持465.87万股</t>
+          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 07:56</t>
+          <t>11-03 07:31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1241802216.html</t>
+          <t>/news,601677,1242321896.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入8414.08万元，两市排名第15（11-01）</t>
+          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 07:34</t>
+          <t>11-02 11:03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1241798889.html</t>
+          <t>/news,601677,1241957663.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
+          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 07:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1256757576.html</t>
+          <t>/news,601677,1257392843.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
+          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:31</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1256751782.html</t>
+          <t>/news,601677,1257390918.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
+          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 17:13</t>
+          <t>12-08 17:19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1256536705.html</t>
+          <t>/news,601677,1257192735.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
+          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:46</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1256090524.html</t>
+          <t>/news,601677,1256757576.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
+          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 07:31</t>
+          <t>12-08 07:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1256087940.html</t>
+          <t>/news,601677,1256751782.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
+          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 17:13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1255447391.html</t>
+          <t>/news,601677,1256536705.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
+          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 07:30</t>
+          <t>12-07 07:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1255444601.html</t>
+          <t>/news,601677,1256090524.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
+          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-05 17:13</t>
+          <t>12-07 07:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1255235963.html</t>
+          <t>/news,601677,1256087940.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,71 +723,71 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>871</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2239</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>2254</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,71 +1299,71 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,93 +1629,93 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,93 +1725,93 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,83 +2045,83 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,61 +2163,61 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,93 +2653,93 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-07 18:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1243868734.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 18:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1243863205.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：接受国盛证券等机构调研</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-07 18:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1243868293.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1243410074.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243404837.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-05 07:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243318292.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-05 07:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243317357.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-04 15:50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243198835.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业11月02日获沪股通增持550.82万股</t>
+          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 07:44</t>
+          <t>11-04 11:38</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1242323972.html</t>
+          <t>/news,601677,1243016150.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入390.45万元，融资余额1.17亿元（11-02）</t>
+          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 07:31</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1242321896.html</t>
+          <t>/news,601677,1242816489.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东方证券给予明泰铝业买入评级，明泰铝业三季报点评：新能源和再生铝持续推进，内生成长可期</t>
+          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 11:03</t>
+          <t>11-04 07:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1241957663.html</t>
+          <t>/news,601677,1242813975.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
+          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 07:48</t>
+          <t>12-12 13:08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1257392843.html</t>
+          <t>/news,601677,1258419434.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,61 +499,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-12 12:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1257390918.html</t>
+          <t>/news,601677,1258407419.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
+          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 17:19</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1257192735.html</t>
+          <t>/news,601677,1258089895.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1256757576.html</t>
+          <t>/news,601677,1258080855.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
+          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-08 07:31</t>
+          <t>12-10 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1256751782.html</t>
+          <t>/news,601677,1257965920.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2343</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
+          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 17:13</t>
+          <t>12-10 07:35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1256536705.html</t>
+          <t>/news,601677,1257962447.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>15918</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
+          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 07:46</t>
+          <t>12-09 17:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1256090524.html</t>
+          <t>/news,601677,1257811471.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
+          <t>明泰铝业放量涨停 两机构买入1亿元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友7355N61r66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-07 07:31</t>
+          <t>12-09 17:20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1256087940.html</t>
+          <t>/news,601677,1257801168.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
+          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-09 17:14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1255447391.html</t>
+          <t>/news,601677,1257799534.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>7400</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
+          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 07:30</t>
+          <t>12-09 16:39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1255444601.html</t>
+          <t>/news,601677,1257789858.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
+          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-05 17:13</t>
+          <t>12-09 16:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1255235963.html</t>
+          <t>/news,601677,1257789040.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-09 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1257392843.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1257390918.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-08 17:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1257192735.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1256757576.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-08 07:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1256751782.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-07 17:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1256536705.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-07 07:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1256090524.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-07 07:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1256087940.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,83 +1149,83 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>960</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,71 +1395,71 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2266</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>2540</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>2619</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,125 +2099,125 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3479</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-07 18:50</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1243868734.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-07 18:43</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1243863205.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业：接受国盛证券等机构调研</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-07 18:42</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1243868293.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1.2亿元，居有色金属板块第一</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1243410074.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4692.23万元，居有色金属板块第十</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1243404837.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业11月04日获沪股通增持93.18万股</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-05 07:47</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1243318292.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还727.45万元，融资余额1.45亿元（11-04）</t>
+          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-05 07:41</t>
+          <t>11-09 07:36</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1243317357.html</t>
+          <t>/news,601677,1244425642.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业：10月铝板带箔销量8.63万吨 同比下滑7%</t>
+          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 15:50</t>
+          <t>11-08 07:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1243198835.html</t>
+          <t>/news,601677,1243973721.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国金证券给予明泰铝业增持评级：铝价致盈利承压 静待业绩修复</t>
+          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 11:38</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1243016150.html</t>
+          <t>/news,601677,1243971792.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2174</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业11月03日获沪股通增持126.5万股</t>
+          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-07 19:29</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1242816489.html</t>
+          <t>/news,601677,1243875732.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>807</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3518.37万元，融资余额1.52亿元（11-03）</t>
+          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 07:31</t>
+          <t>11-07 19:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1242813975.html</t>
+          <t>/news,601677,1243871784.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
+          <t>明泰铝业12月12日被沪股通减持211.82万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 13:08</t>
+          <t>12-13 07:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1258419434.html</t>
+          <t>/news,601677,1258760505.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,93 +499,93 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
+          <t>明泰铝业：融资净买入1542.93万元，融资余额1.53亿元（12-12）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-12 12:58</t>
+          <t>12-13 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1258407419.html</t>
+          <t>/news,601677,1258758364.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
+          <t>大宗交易：明泰铝业成交971.12万元，折价12.19%（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-12 17:14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1258089895.html</t>
+          <t>/news,601677,1258556389.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
+          <t>中原证券给予明泰铝业增持评级：项目建设稳中有进 盈利有望逐步修复</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-12 16:28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1258080855.html</t>
+          <t>/news,601677,1258544567.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
+          <t>中原证券首次给予明泰铝业增持评级 预计2022年净利润同比增长1.57%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-10 07:56</t>
+          <t>12-12 16:17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1257965920.html</t>
+          <t>/news,601677,1258539807.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
+          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 07:35</t>
+          <t>12-12 13:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1257962447.html</t>
+          <t>/news,601677,1258419434.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15918</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 17:44</t>
+          <t>12-12 12:58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1257811471.html</t>
+          <t>/news,601677,1258407419.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,71 +691,71 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业放量涨停 两机构买入1亿元</t>
+          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>股友7355N61r66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 17:20</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1257801168.html</t>
+          <t>/news,601677,1258089895.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
+          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 17:14</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1257799534.html</t>
+          <t>/news,601677,1258080855.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7400</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
+          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 16:39</t>
+          <t>12-10 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1257789858.html</t>
+          <t>/news,601677,1257965920.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
+          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 16:36</t>
+          <t>12-10 07:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1257789040.html</t>
+          <t>/news,601677,1257962447.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>16920</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
+          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 07:48</t>
+          <t>12-09 17:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1257392843.html</t>
+          <t>/news,601677,1257811471.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
+          <t>明泰铝业放量涨停 两机构买入1亿元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友7355N61r66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-09 17:20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1257390918.html</t>
+          <t>/news,601677,1257801168.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>2368</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
+          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 17:19</t>
+          <t>12-09 17:14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1257192735.html</t>
+          <t>/news,601677,1257799534.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>7637</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
+          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 16:39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1256757576.html</t>
+          <t>/news,601677,1257789858.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
+          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-08 07:31</t>
+          <t>12-09 16:36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1256751782.html</t>
+          <t>/news,601677,1257789040.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
+          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-07 17:13</t>
+          <t>12-09 07:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1256536705.html</t>
+          <t>/news,601677,1257392843.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
+          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-07 07:46</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1256090524.html</t>
+          <t>/news,601677,1257390918.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
+          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-07 07:31</t>
+          <t>12-08 17:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1256087940.html</t>
+          <t>/news,601677,1257192735.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
+          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1255447391.html</t>
+          <t>/news,601677,1256757576.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
+          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-06 07:30</t>
+          <t>12-08 07:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1255444601.html</t>
+          <t>/news,601677,1256751782.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
+          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-05 17:13</t>
+          <t>12-07 17:13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1255235963.html</t>
+          <t>/news,601677,1256536705.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-07 07:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1256090524.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-07 07:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1256087940.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2266</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>968</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,71 +1747,71 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,93 +2077,93 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,71 +2675,71 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业11月08日被沪股通减持291.42万股</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 07:36</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1244425642.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业11月07日被沪股通减持308.61万股</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 07:46</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1243973721.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入377.74万元，融资余额1.49亿元（11-07）</t>
+          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 07:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1243971792.html</t>
+          <t>/news,601677,1244889683.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等新能源领域产品已批量生产</t>
+          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-07 19:29</t>
+          <t>11-09 13:24</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1243875732.html</t>
+          <t>/news,601677,1244651369.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：动力电池壳、电池托盘等产品已有批量生产交付</t>
+          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-07 19:04</t>
+          <t>11-09 07:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1243871784.html</t>
+          <t>/news,601677,1244428241.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业12月12日被沪股通减持211.82万股</t>
+          <t>明泰铝业12月13日被沪股通减持277.14万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 07:46</t>
+          <t>12-14 07:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1258760505.html</t>
+          <t>/news,601677,1259346024.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1542.93万元，融资余额1.53亿元（12-12）</t>
+          <t>明泰铝业：融资净买入1251.68万元，融资余额1.66亿元（12-13）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:32</t>
+          <t>12-14 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1258758364.html</t>
+          <t>/news,601677,1259344382.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2245</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交971.12万元，折价12.19%（12-12）</t>
+          <t>大宗交易：明泰铝业成交897.6万元，折价12.35%（12-13）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 17:14</t>
+          <t>12-13 17:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1258556389.html</t>
+          <t>/news,601677,1259119892.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中原证券给予明泰铝业增持评级：项目建设稳中有进 盈利有望逐步修复</t>
+          <t>明泰铝业12月12日被沪股通减持211.82万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-12 16:28</t>
+          <t>12-13 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1258544567.html</t>
+          <t>/news,601677,1258760505.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中原证券首次给予明泰铝业增持评级 预计2022年净利润同比增长1.57%</t>
+          <t>明泰铝业：融资净买入1542.93万元，融资余额1.53亿元（12-12）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 16:17</t>
+          <t>12-13 07:32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1258539807.html</t>
+          <t>/news,601677,1258758364.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
+          <t>大宗交易：明泰铝业成交971.12万元，折价12.19%（12-12）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-12 13:08</t>
+          <t>12-12 17:14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1258419434.html</t>
+          <t>/news,601677,1258556389.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>1816</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
+          <t>中原证券给予明泰铝业增持评级：项目建设稳中有进 盈利有望逐步修复</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-12 12:58</t>
+          <t>12-12 16:28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1258407419.html</t>
+          <t>/news,601677,1258544567.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,61 +691,61 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
+          <t>中原证券首次给予明泰铝业增持评级 预计2022年净利润同比增长1.57%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-12 16:17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1258089895.html</t>
+          <t>/news,601677,1258539807.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
+          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-12 13:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1258080855.html</t>
+          <t>/news,601677,1258419434.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-10 07:56</t>
+          <t>12-12 12:58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1257965920.html</t>
+          <t>/news,601677,1258407419.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
+          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-10 07:35</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1257962447.html</t>
+          <t>/news,601677,1258089895.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16920</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
+          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 17:44</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1257811471.html</t>
+          <t>/news,601677,1258080855.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业放量涨停 两机构买入1亿元</t>
+          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>股友7355N61r66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-09 17:20</t>
+          <t>12-10 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1257801168.html</t>
+          <t>/news,601677,1257965920.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
+          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-09 17:14</t>
+          <t>12-10 07:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1257799534.html</t>
+          <t>/news,601677,1257962447.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7637</t>
+          <t>18096</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
+          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-09 16:39</t>
+          <t>12-09 17:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1257789858.html</t>
+          <t>/news,601677,1257811471.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
+          <t>明泰铝业放量涨停 两机构买入1亿元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友7355N61r66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-09 16:36</t>
+          <t>12-09 17:20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1257789040.html</t>
+          <t>/news,601677,1257801168.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>2390</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
+          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-09 07:48</t>
+          <t>12-09 17:14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1257392843.html</t>
+          <t>/news,601677,1257799534.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>7730</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
+          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-09 16:39</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1257390918.html</t>
+          <t>/news,601677,1257789858.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
+          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-08 17:19</t>
+          <t>12-09 16:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1257192735.html</t>
+          <t>/news,601677,1257789040.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
+          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 07:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1256757576.html</t>
+          <t>/news,601677,1257392843.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
+          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-08 07:31</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1256751782.html</t>
+          <t>/news,601677,1257390918.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
+          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-07 17:13</t>
+          <t>12-08 17:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1256536705.html</t>
+          <t>/news,601677,1257192735.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
+          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-07 07:46</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1256090524.html</t>
+          <t>/news,601677,1256757576.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
+          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-07 07:31</t>
+          <t>12-08 07:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1256087940.html</t>
+          <t>/news,601677,1256751782.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
+          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 17:13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1255447391.html</t>
+          <t>/news,601677,1256536705.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
+          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-06 07:30</t>
+          <t>12-07 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1255444601.html</t>
+          <t>/news,601677,1256090524.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
+          <t>明泰铝业：融资净买入408.98万元，融</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-05 17:13</t>
+          <t>12-07 07:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1255235963.html</t>
+          <t>/news,601677,1256087940.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,71 +1331,71 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>973</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2270</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2623</t>
+          <t>2549</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,71 +1907,71 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-16 07:57</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1247176719.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,83 +2653,83 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-16 07:29</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1247172069.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1246699038.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1246689615.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-15 07:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1246687598.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,61 +2771,61 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1246101614.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1246093378.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-12 07:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1245987033.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1245986404.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1245413871.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还710.35万元，融资余额1.77亿元（11-09）</t>
+          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-10 07:44</t>
+          <t>11-11 07:40</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1244889683.html</t>
+          <t>/news,601677,1245410597.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国盛证券维持明泰铝业买入评级 预计2022年净利润同比减少9.29%</t>
+          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-09 13:24</t>
+          <t>11-10 11:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1244651369.html</t>
+          <t>/news,601677,1245052912.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入3557.33万元，融资余额1.84亿元（11-08）</t>
+          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-09 07:51</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1244428241.html</t>
+          <t>/news,601677,1244892209.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业12月13日被沪股通减持277.14万股</t>
+          <t>明泰铝业12月19日被沪股通减持118.1万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 07:45</t>
+          <t>12-20 07:38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1259346024.html</t>
+          <t>/news,601677,1261722358.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1251.68万元，融资余额1.66亿元（12-13）</t>
+          <t>明泰铝业：融资净偿还524.48万元，融资余额1.71亿元（12-19）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:36</t>
+          <t>12-20 07:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1259344382.html</t>
+          <t>/news,601677,1261719725.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交897.6万元，折价12.35%（12-13）</t>
+          <t>大宗交易：明泰铝业成交1368.16万元，折价10.21%（12-19）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 17:13</t>
+          <t>12-19 17:12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1259119892.html</t>
+          <t>/news,601677,1261554036.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业12月12日被沪股通减持211.82万股</t>
+          <t>明泰铝业本周融资净买入3459.98万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:46</t>
+          <t>12-18 15:22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1258760505.html</t>
+          <t>/news,601677,1261089482.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1542.93万元，融资余额1.53亿元（12-12）</t>
+          <t>明泰铝业本周沪股通持股市值减少8271.14万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-13 07:32</t>
+          <t>12-18 14:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1258758364.html</t>
+          <t>/news,601677,1261080425.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交971.12万元，折价12.19%（12-12）</t>
+          <t>明泰铝业12月16日获沪股通增持251.33万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-12 17:14</t>
+          <t>12-17 07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1258556389.html</t>
+          <t>/news,601677,1260975734.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中原证券给予明泰铝业增持评级：项目建设稳中有进 盈利有望逐步修复</t>
+          <t>明泰铝业：融资净偿还571.86万元，融资余额1.77亿元（12-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,61 +669,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-12 16:28</t>
+          <t>12-17 07:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1258544567.html</t>
+          <t>/news,601677,1260975006.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中原证券首次给予明泰铝业增持评级 预计2022年净利润同比增长1.57%</t>
+          <t>明泰铝业等31股近五日获机构净买入</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-12 16:17</t>
+          <t>12-16 09:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1258539807.html</t>
+          <t>/news,601677,1260532608.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
+          <t>明泰铝业12月15日被沪股通减持46.56万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-12 13:08</t>
+          <t>12-16 07:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1258419434.html</t>
+          <t>/news,601677,1260478391.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
+          <t>明泰铝业：连续4日融资净买入累计4031.84万元（12-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-12 12:58</t>
+          <t>12-16 07:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1258407419.html</t>
+          <t>/news,601677,1260474282.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
+          <t>明泰铝业12月14日被沪股通减持156.52万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-15 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1258089895.html</t>
+          <t>/news,601677,1259932806.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
+          <t>明泰铝业：连续3日融资净买入累计3741.66万元（12-14）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-15 07:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1258080855.html</t>
+          <t>/news,601677,1259929777.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>3275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
+          <t>大宗交易：明泰铝业成交8687.23万元，折价3.08%（12-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-10 07:56</t>
+          <t>12-14 17:12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1257965920.html</t>
+          <t>/news,601677,1259715682.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
+          <t>明泰铝业12月13日被沪股通减持277.14万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-10 07:35</t>
+          <t>12-14 07:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1257962447.html</t>
+          <t>/news,601677,1259346024.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18096</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
+          <t>明泰铝业：融资净买入1251.68万元，融资余额1.66亿元（12-13）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,61 +925,61 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-09 17:44</t>
+          <t>12-14 07:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1257811471.html</t>
+          <t>/news,601677,1259344382.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>明泰铝业放量涨停 两机构买入1亿元</t>
+          <t>大宗交易：明泰铝业成交897.6万元，折价12.35%（12-13）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>股友7355N61r66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-09 17:20</t>
+          <t>12-13 17:13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1257801168.html</t>
+          <t>/news,601677,1259119892.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
+          <t>明泰铝业12月12日被沪股通减持211.82万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-09 17:14</t>
+          <t>12-13 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1257799534.html</t>
+          <t>/news,601677,1258760505.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7730</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
+          <t>明泰铝业：融资净买入1542.93万元，融资余额1.53亿元（12-12）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-09 16:39</t>
+          <t>12-13 07:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1257789858.html</t>
+          <t>/news,601677,1258758364.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
+          <t>大宗交易：明泰铝业成交971.12万元，折价12.19%（12-12）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-09 16:36</t>
+          <t>12-12 17:14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1257789040.html</t>
+          <t>/news,601677,1258556389.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
+          <t>中原证券给予明泰铝业增持评级：项目建设稳中有进 盈利有望逐步修复</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-09 07:48</t>
+          <t>12-12 16:28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1257392843.html</t>
+          <t>/news,601677,1258544567.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
+          <t>中原证券首次给予明泰铝业增持评级 预计2022年净利润同比增长1.57%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-12 16:17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1257390918.html</t>
+          <t>/news,601677,1258539807.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
+          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-08 17:19</t>
+          <t>12-12 13:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1257192735.html</t>
+          <t>/news,601677,1258419434.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-12 12:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1256757576.html</t>
+          <t>/news,601677,1258407419.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,71 +1203,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
+          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-08 07:31</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1256751782.html</t>
+          <t>/news,601677,1258089895.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
+          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-07 17:13</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1256536705.html</t>
+          <t>/news,601677,1258080855.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
+          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-07 07:46</t>
+          <t>12-10 07:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1256090524.html</t>
+          <t>/news,601677,1257965920.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入408.98万元，融</t>
+          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-07 07:31</t>
+          <t>12-10 07:35</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1256087940.html</t>
+          <t>/news,601677,1257962447.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>18617</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
+          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-09 17:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1255447391.html</t>
+          <t>/news,601677,1257811471.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
+          <t>明泰铝业放量涨停 两机构买入1亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友7355N61r66</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-06 07:30</t>
+          <t>12-09 17:20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1255444601.html</t>
+          <t>/news,601677,1257801168.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
+          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-05 17:13</t>
+          <t>12-09 17:14</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1255235963.html</t>
+          <t>/news,601677,1257799534.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-09 16:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1257789858.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-09 16:36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1257789040.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-09 07:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1257392843.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1257390918.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-08 17:19</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1257192735.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1256757576.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-08 07:31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1256751782.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>2531</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-07 17:13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1256536705.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-07 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1256090524.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-07 07:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1256087940.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>2044</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,61 +1843,61 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>996</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>2293</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,135 +2355,135 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业11月15日获沪股通增持117.26万股</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-16 07:57</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1247176719.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入446.2万元，融资余额1.67亿元（11-15）</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-16 07:29</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1247172069.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：近期暂未开展套期保值业务 未出现不可控风险</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1246699038.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业11月14日被沪股通减持324.55万股</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-15 07:47</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1246689615.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入400.3万元，融资余额1.63亿元（11-14）</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 07:34</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1246687598.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入1365.06万元，居有色金属板块第十一</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1246101614.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少1.05亿元，居有色金属板块第一</t>
+          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-20 14:10</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1246093378.html</t>
+          <t>/news,601677,1248763734.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2338.7万元，融资余额1.59亿元（11-11）</t>
+          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-12 07:52</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1245987033.html</t>
+          <t>/news,601677,1248638325.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业11月11日获沪股通增持126.16万股</t>
+          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-19 07:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1245986404.html</t>
+          <t>/news,601677,1248635629.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业11月10日被沪股通减持92.81万股</t>
+          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 07:55</t>
+          <t>11-18 07:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1245413871.html</t>
+          <t>/news,601677,1248154665.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入479.04万元，融资余额1.82亿元（11-10）</t>
+          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-11 07:40</t>
+          <t>11-18 07:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1245410597.html</t>
+          <t>/news,601677,1248151974.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3606</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>新能源产品开发顺利 明泰铝业参与新能源电池厂商明年订单招标</t>
+          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-10 11:05</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1245052912.html</t>
+          <t>/news,601677,1247667990.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业11月09日被沪股通减持138.27万股</t>
+          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-17 07:49</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1244892209.html</t>
+          <t>/news,601677,1247667398.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/601677.xlsx
+++ b/news_ann/news/tmp/601677.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>明泰铝业12月19日被沪股通减持118.1万股</t>
+          <t>明泰铝业12月22日获沪股通增持61.29万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:38</t>
+          <t>12-23 07:40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,601677,1261722358.html</t>
+          <t>/news,601677,1263190247.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还524.48万元，融资余额1.71亿元（12-19）</t>
+          <t>明泰铝业：融资净偿还1287.63万元，融资余额1.64亿元（12-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:29</t>
+          <t>12-23 07:39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,601677,1261719725.html</t>
+          <t>/news,601677,1263190153.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交1368.16万元，折价10.21%（12-19）</t>
+          <t>明泰铝业：融资净买入238.34万元，融资余额1.77亿元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 17:12</t>
+          <t>12-22 07:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,601677,1261554036.html</t>
+          <t>/news,601677,1262667843.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入3459.98万元，居有色金属板块第三</t>
+          <t>明泰铝业12月21日被沪股通减持41.64万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 15:22</t>
+          <t>12-22 07:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,601677,1261089482.html</t>
+          <t>/news,601677,1262667607.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少8271.14万元，居有色金属板块第三</t>
+          <t>明泰铝业：融资净买入320.11万元，融资余额1.74亿元（12-20）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-18 14:04</t>
+          <t>12-21 07:33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,601677,1261080425.html</t>
+          <t>/news,601677,1262195664.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明泰铝业12月16日获沪股通增持251.33万股</t>
+          <t>明泰铝业12月20日被沪股通减持87.48万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-17 07:50</t>
+          <t>12-21 07:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,601677,1260975734.html</t>
+          <t>/news,601677,1262195065.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还571.86万元，融资余额1.77亿元（12-16）</t>
+          <t>大宗交易：明泰铝业成交2530万元，成交价18.40元（12-20）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-17 07:45</t>
+          <t>12-20 17:12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,601677,1260975006.html</t>
+          <t>/news,601677,1262032738.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>明泰铝业等31股近五日获机构净买入</t>
+          <t>明泰铝业12月19日被沪股通减持118.1万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 09:44</t>
+          <t>12-20 07:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,601677,1260532608.html</t>
+          <t>/news,601677,1261722358.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>明泰铝业12月15日被沪股通减持46.56万股</t>
+          <t>明泰铝业：融资净偿还524.48万元，融资余额1.71亿元（12-19）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-16 07:55</t>
+          <t>12-20 07:29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,601677,1260478391.html</t>
+          <t>/news,601677,1261719725.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净买入累计4031.84万元（12-15）</t>
+          <t>大宗交易：明泰铝业成交1368.16万元，折价10.21%（12-19）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-16 07:33</t>
+          <t>12-19 17:12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,601677,1260474282.html</t>
+          <t>/news,601677,1261554036.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>明泰铝业12月14日被沪股通减持156.52万股</t>
+          <t>明泰铝业本周融资净买入3459.98万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-15 07:47</t>
+          <t>12-18 15:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,601677,1259932806.html</t>
+          <t>/news,601677,1261089482.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,39 +819,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净买入累计3741.66万元（12-14）</t>
+          <t>明泰铝业本周沪股通持股市值减少8271.14万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-15 07:32</t>
+          <t>12-18 14:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,601677,1259929777.html</t>
+          <t>/news,601677,1261080425.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3275</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交8687.23万元，折价3.08%（12-14）</t>
+          <t>明泰铝业12月16日获沪股通增持251.33万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-14 17:12</t>
+          <t>12-17 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,601677,1259715682.html</t>
+          <t>/news,601677,1260975734.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>明泰铝业12月13日被沪股通减持277.14万股</t>
+          <t>明泰铝业：融资净偿还571.86万元，融资余额1.77亿元（12-16）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-14 07:45</t>
+          <t>12-17 07:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,601677,1259346024.html</t>
+          <t>/news,601677,1260975006.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1251.68万元，融资余额1.66亿元（12-13）</t>
+          <t>明泰铝业等31股近五日获机构净买入</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-14 07:36</t>
+          <t>12-16 09:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,601677,1259344382.html</t>
+          <t>/news,601677,1260532608.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交897.6万元，折价12.35%（12-13）</t>
+          <t>明泰铝业12月15日被沪股通减持46.56万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-13 17:13</t>
+          <t>12-16 07:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,601677,1259119892.html</t>
+          <t>/news,601677,1260478391.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>明泰铝业12月12日被沪股通减持211.82万股</t>
+          <t>明泰铝业：连续4日融资净买入累计4031.84万元（12-15）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-13 07:46</t>
+          <t>12-16 07:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,601677,1258760505.html</t>
+          <t>/news,601677,1260474282.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1542.93万元，融资余额1.53亿元（12-12）</t>
+          <t>明泰铝业12月14日被沪股通减持156.52万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-13 07:32</t>
+          <t>12-15 07:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,601677,1258758364.html</t>
+          <t>/news,601677,1259932806.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交971.12万元，折价12.19%（12-12）</t>
+          <t>明泰铝业：连续3日融资净买入累计3741.66万元（12-14）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-12 17:14</t>
+          <t>12-15 07:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,601677,1258556389.html</t>
+          <t>/news,601677,1259929777.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中原证券给予明泰铝业增持评级：项目建设稳中有进 盈利有望逐步修复</t>
+          <t>大宗交易：明泰铝业成交8687.23万元，折价3.08%（12-14）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-12 16:28</t>
+          <t>12-14 17:12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,601677,1258544567.html</t>
+          <t>/news,601677,1259715682.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中原证券首次给予明泰铝业增持评级 预计2022年净利润同比增长1.57%</t>
+          <t>明泰铝业12月13日被沪股通减持277.14万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-12 16:17</t>
+          <t>12-14 07:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,601677,1258539807.html</t>
+          <t>/news,601677,1259346024.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
+          <t>明泰铝业：融资净买入1251.68万元，融资余额1.66亿元（12-13）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,83 +1149,83 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-12 13:08</t>
+          <t>12-14 07:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,601677,1258419434.html</t>
+          <t>/news,601677,1259344382.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
+          <t>大宗交易：明泰铝业成交897.6万元，折价12.35%（12-13）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-12 12:58</t>
+          <t>12-13 17:13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,601677,1258407419.html</t>
+          <t>/news,601677,1259119892.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
+          <t>明泰铝业12月12日被沪股通减持211.82万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-13 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,601677,1258089895.html</t>
+          <t>/news,601677,1258760505.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
+          <t>明泰铝业：融资净买入1542.93万元，融资余额1.53亿元（12-12）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-13 07:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,601677,1258080855.html</t>
+          <t>/news,601677,1258758364.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
+          <t>大宗交易：明泰铝业成交971.12万元，折价12.19%（12-12）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-10 07:56</t>
+          <t>12-12 17:14</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,601677,1257965920.html</t>
+          <t>/news,601677,1258556389.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
+          <t>中原证券给予明泰铝业增持评级：项目建设稳中有进 盈利有望逐步修复</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,147 +1309,147 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-10 07:35</t>
+          <t>12-12 16:28</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,601677,1257962447.html</t>
+          <t>/news,601677,1258544567.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>18617</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
+          <t>中原证券首次给予明泰铝业增持评级 预计2022年净利润同比增长1.57%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-09 17:44</t>
+          <t>12-12 16:17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,601677,1257811471.html</t>
+          <t>/news,601677,1258539807.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>1875</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>明泰铝业放量涨停 两机构买入1亿元</t>
+          <t>财通证券给予明泰铝业增持评级 量价齐升穿越周期 高端转型厚积薄发</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>股友7355N61r66</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-09 17:20</t>
+          <t>12-12 13:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,601677,1257801168.html</t>
+          <t>/news,601677,1258419434.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
+          <t>财通证券维持明泰铝业增持评级 预计2022年净利润同比减少17.71%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-09 17:14</t>
+          <t>12-12 12:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,601677,1257799534.html</t>
+          <t>/news,601677,1258407419.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8008</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
+          <t>明泰铝业本周融资净偿还2620.07万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-09 16:39</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,601677,1257789858.html</t>
+          <t>/news,601677,1258089895.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
+          <t>明泰铝业本周沪股通持股市值增加4452.77万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-09 16:36</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,601677,1257789040.html</t>
+          <t>/news,601677,1258080855.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
+          <t>明泰铝业12月09日获沪股通增持270.17万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-09 07:48</t>
+          <t>12-10 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,601677,1257392843.html</t>
+          <t>/news,601677,1257965920.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
+          <t>明泰铝业：融资净偿还1275.93万元，融资余额1.38亿元（12-09）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-09 07:38</t>
+          <t>12-10 07:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,601677,1257390918.html</t>
+          <t>/news,601677,1257962447.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>18661</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
+          <t>龙虎榜：1.4亿抢筹明泰铝业 机构净买7股 外资净买6股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-08 17:19</t>
+          <t>12-09 17:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,601677,1257192735.html</t>
+          <t>/news,601677,1257811471.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
+          <t>明泰铝业放量涨停 两机构买入1亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>股友7355N61r66</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 17:20</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,601677,1256757576.html</t>
+          <t>/news,601677,1257801168.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
+          <t>大宗交易：明泰铝业成交969.49万元，折价18.20%（12-09）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-08 07:31</t>
+          <t>12-09 17:14</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,601677,1256751782.html</t>
+          <t>/news,601677,1257799534.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2531</t>
+          <t>8095</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
+          <t>明泰铝业(601677)龙虎榜数据(12-09)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-07 17:13</t>
+          <t>12-09 16:39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,601677,1256536705.html</t>
+          <t>/news,601677,1257789858.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
+          <t>多主力现身龙虎榜，明泰铝业涨停（12-09）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-07 07:46</t>
+          <t>12-09 16:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,601677,1256090524.html</t>
+          <t>/news,601677,1257789040.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
+          <t>明泰铝业12月08日被沪股通减持23.06万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-07 07:31</t>
+          <t>12-09 07:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,601677,1256087940.html</t>
+          <t>/news,601677,1257392843.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
+          <t>明泰铝业：融资净偿还375.62万元，融资余额1.5亿元（12-08）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-09 07:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,601677,1255447391.html</t>
+          <t>/news,601677,1257390918.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1749</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
+          <t>大宗交易：明泰铝业成交970.83万元，折价9.89%（12-08）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12-06 07:30</t>
+          <t>12-08 17:19</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,601677,1255444601.html</t>
+          <t>/news,601677,1257192735.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2044</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
+          <t>明泰铝业12月07日获沪股通增持15.13万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12-05 17:13</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,601677,1255235963.html</t>
+          <t>/news,601677,1256757576.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,71 +1843,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
+          <t>明泰铝业：融资净买入731.2万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12-04 15:07</t>
+          <t>12-08 07:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,601677,1254650372.html</t>
+          <t>/news,601677,1256751782.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2545</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
+          <t>大宗交易：明泰铝业成交6488.9万元，折价2.88%（12-07）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12-04 14:04</t>
+          <t>12-07 17:13</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,601677,1254642545.html</t>
+          <t>/news,601677,1256536705.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
+          <t>明泰铝业12月06日被沪股通减持63.03万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-07 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,601677,1254511364.html</t>
+          <t>/news,601677,1256090524.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
+          <t>明泰铝业：融资净买入408.98万元，融资余额1.47亿元（12-06）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>12-03 07:39</t>
+          <t>12-07 07:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,601677,1254510579.html</t>
+          <t>/news,601677,1256087940.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
+          <t>明泰铝业12月05日获沪股通增持59.51万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12-02 15:43</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,601677,1254295295.html</t>
+          <t>/news,601677,1255447391.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
+          <t>明泰铝业：融资净偿还2108.71万元，融资余额1.43亿元（12-05）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>12-02 15:36</t>
+          <t>12-06 07:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,601677,1254293619.html</t>
+          <t>/news,601677,1255444601.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
+          <t>大宗交易：明泰铝业成交960.96万元，折价13.28%（12-05）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-05 17:13</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,601677,1253912866.html</t>
+          <t>/news,601677,1255235963.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
+          <t>明泰铝业本周融资净买入553.93万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>12-02 07:39</t>
+          <t>12-04 15:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,601677,1253911436.html</t>
+          <t>/news,601677,1254650372.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
+          <t>明泰铝业本周沪股通持股市值减少4864.91万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12-01 17:31</t>
+          <t>12-04 14:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,601677,1253748534.html</t>
+          <t>/news,601677,1254642545.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
+          <t>明泰铝业12月02日被沪股通减持137.72万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,601677,1253301945.html</t>
+          <t>/news,601677,1254511364.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
+          <t>明泰铝业：融资净买入1499.96万元，融资余额1.64亿元（12-02）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12-01 07:41</t>
+          <t>12-03 07:39</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,601677,1253300072.html</t>
+          <t>/news,601677,1254510579.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨 同比减少16%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-30 17:40</t>
+          <t>12-02 15:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,601677,1253160948.html</t>
+          <t>/news,601677,1254295295.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1412</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
+          <t>明泰铝业：11月铝板带箔销量9.23万吨，同比下滑16%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-02 15:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,601677,1252779567.html</t>
+          <t>/news,601677,1254293619.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
+          <t>明泰铝业12月01日被沪股通减持67.74万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-30 07:38</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,601677,1252776173.html</t>
+          <t>/news,601677,1253912866.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
+          <t>明泰铝业：融资净偿还209.11万元，融资余额1.49亿元（12-01）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-29 17:17</t>
+          <t>12-02 07:39</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,601677,1252589724.html</t>
+          <t>/news,601677,1253911436.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>2298</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
+          <t>大宗交易：明泰铝业成交968.32万元，折价12.53%（12-01）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-29 07:46</t>
+          <t>12-01 17:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,601677,1252212054.html</t>
+          <t>/news,601677,1253748534.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
+          <t>明泰铝业11月30日被沪股通减持16.04万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,601677,1252211879.html</t>
+          <t>/news,601677,1253301945.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
+          <t>明泰铝业：融资净买入537.1万元，融资余额1.51亿元（11-30）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,93 +2397,93 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-28 17:20</t>
+          <t>12-01 07:41</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,601677,1252064754.html</t>
+          <t>/news,601677,1253300072.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
+          <t>大宗交易：明泰铝业成交2572.82万元，折价7.65%（11-30）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-27 15:18</t>
+          <t>11-30 17:40</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,601677,1251592699.html</t>
+          <t>/news,601677,1253160948.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
+          <t>明泰铝业11月29日被沪股通减持70.88万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,601677,1251583571.html</t>
+          <t>/news,601677,1252779567.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
+          <t>明泰铝业：连续6日融资净偿还累计3452.75万元（11-29）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-26 07:49</t>
+          <t>11-30 07:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,601677,1251433673.html</t>
+          <t>/news,601677,1252776173.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
+          <t>大宗交易：明泰铝业成交4289.65万元，折价15.77%（11-29）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-26 07:34</t>
+          <t>11-29 17:17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,601677,1251431233.html</t>
+          <t>/news,601677,1252589724.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
+          <t>明泰铝业11月28日被沪股通减持10.61万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-25 07:47</t>
+          <t>11-29 07:46</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,601677,1250942666.html</t>
+          <t>/news,601677,1252212054.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
+          <t>明泰铝业：连续5日融资净偿还累计2284.53万元（11-28）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-25 07:33</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,601677,1250939683.html</t>
+          <t>/news,601677,1252211879.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
+          <t>大宗交易：明泰铝业成交4849.2万元，折价11.32%（11-28）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-28 17:20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,601677,1250420541.html</t>
+          <t>/news,601677,1252064754.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
+          <t>明泰铝业本周融资净偿还2039.58万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-24 07:34</t>
+          <t>11-27 15:18</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,601677,1250416833.html</t>
+          <t>/news,601677,1251592699.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
+          <t>明泰铝业本周沪股通持股市值增加4005.87万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-23 07:34</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,601677,1249872844.html</t>
+          <t>/news,601677,1251583571.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
+          <t>明泰铝业11月25日获沪股通增持81.22万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-26 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,601677,1249347563.html</t>
+          <t>/news,601677,1251433673.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
+          <t>明泰铝业：连续4日融资净偿还累计2178.72万元（11-25）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 07:35</t>
+          <t>11-26 07:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,601677,1249345479.html</t>
+          <t>/news,601677,1251431233.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
+          <t>明泰铝业11月24日获沪股通增持103.48万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-20 15:05</t>
+          <t>11-25 07:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,601677,1248768702.html</t>
+          <t>/news,601677,1250942666.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>明泰铝业本周沪股通持股市值减少4489.63万元，居有色金属板块第二</t>
+          <t>明泰铝业：连续3日融资净偿还累计1573.94万元（11-24）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>明泰铝业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-20 14:10</t>
+          <t>11-25 07:33</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,601677,1248763734.html</t>
+          <t>/news,601677,1250939683.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>明泰铝业11月18日获沪股通增持24.39万股</t>
+          <t>明泰铝业11月23日获沪股通增持55.98万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,601677,1248638325.html</t>
+          <t>/news,601677,1250420541.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还30.21万元，融资余额1.79亿元（11-18）</t>
+          <t>明泰铝业：融资净偿还238.48万元，融资余额1.76亿元（11-23）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-19 07:31</t>
+          <t>11-24 07:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,601677,1248635629.html</t>
+          <t>/news,601677,1250416833.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>明泰铝业11月17日被沪股通减持56.09万股</t>
+          <t>明泰铝业：融资净偿还191.87万元，融资余额1.78亿元（11-22）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-18 07:56</t>
+          <t>11-23 07:34</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,601677,1248154665.html</t>
+          <t>/news,601677,1249872844.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净买入2863.43万元，融资余额1.79亿元（11-17）</t>
+          <t>明泰铝业11月21日获沪股通增持24.42万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-18 07:43</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,601677,1248151974.html</t>
+          <t>/news,601677,1249347563.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>明泰铝业：融资净偿还1675.08万元，融资余额1.5亿元（11-16）</t>
+          <t>明泰铝业：融资净买入139.14万元，融资余额1.8亿元（11-21）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-22 07:35</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,601677,1247667990.html</t>
+          <t>/news,601677,1249345479.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>明泰铝业11月16日被沪股通减持50.23万股</t>
+          <t>明泰铝业本周融资净买入2004.63万元，居有色金属板块第二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>明泰铝业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-17 07:49</t>
+          <t>11-20 15:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,601677,1247667398.html</t>
+          <t>/news,601677,1248768702.html</t>
         </is>
       </c>
     </row>
